--- a/Check list for mobile app TO-DO-MVP.xlsx
+++ b/Check list for mobile app TO-DO-MVP.xlsx
@@ -744,7 +744,7 @@
   </sheetPr>
   <dimension ref="A1:Z972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
